--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Question&amp;Answers" sheetId="1" r:id="rId1"/>
     <sheet name="TestPlan" sheetId="2" r:id="rId2"/>
     <sheet name="SigninTest" sheetId="3" r:id="rId3"/>
+    <sheet name="SigninInvalidEmail" sheetId="4" r:id="rId4"/>
+    <sheet name="SigninEmptyField" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginRegisteredUser" sheetId="6" r:id="rId6"/>
+    <sheet name="LoginInvalidEmail" sheetId="7" r:id="rId7"/>
+    <sheet name="LoginInvalidPassword" sheetId="8" r:id="rId8"/>
+    <sheet name="LoginEmptyCredentials" sheetId="10" r:id="rId9"/>
+    <sheet name="Logout" sheetId="9" r:id="rId10"/>
+    <sheet name="AddNewAddress" sheetId="11" r:id="rId11"/>
+    <sheet name="UpdateAddress" sheetId="12" r:id="rId12"/>
+    <sheet name="DeleteAddress" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>QUESTIONS</t>
   </si>
@@ -36,12 +46,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Verify that user can sign in with valid email</t>
-  </si>
-  <si>
-    <t>Verify that user cannot sign in with invalid email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
@@ -51,9 +55,6 @@
     <t>Test steps</t>
   </si>
   <si>
-    <t>valid data</t>
-  </si>
-  <si>
     <t>invalid data</t>
   </si>
   <si>
@@ -75,19 +76,231 @@
     <t>Click on "Sign in" tab</t>
   </si>
   <si>
+    <t>lenkalalovic</t>
+  </si>
+  <si>
+    <t>Enter email in section "CREATE AN ACCOUNT"</t>
+  </si>
+  <si>
+    <t>Invalid email address.</t>
+  </si>
+  <si>
+    <t>YOUR PERSONAL INFORMATION</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:02</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:03</t>
+  </si>
+  <si>
+    <t>Verify that user cannot registered with empty email field</t>
+  </si>
+  <si>
+    <t>Verify that user cannot registered with invalid email</t>
+  </si>
+  <si>
+    <t>Verify that user can registered with valid email</t>
+  </si>
+  <si>
+    <t>Verify that previously registerd user can login with valid credentials</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:04</t>
+  </si>
+  <si>
+    <t>Enter email in section "ALREADY REGISTERED?"</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Click on "Sign in" button</t>
+  </si>
+  <si>
+    <t>lenka</t>
+  </si>
+  <si>
     <t>lalovic.lenka@gmail.com</t>
   </si>
   <si>
-    <t>lenkalalovic</t>
-  </si>
-  <si>
-    <t>Enter email in section "CREATE AN ACCOUNT"</t>
-  </si>
-  <si>
-    <t>Invalid email address.</t>
-  </si>
-  <si>
-    <t>YOUR PERSONAL INFORMATION</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Verify that previously registerd user cannot login with invalid email</t>
+  </si>
+  <si>
+    <t>Verify that previously registered user cannot login with invalid password</t>
+  </si>
+  <si>
+    <t>Verify that previously registred user cannot login with empty field for email and password</t>
+  </si>
+  <si>
+    <t>Verify that user can logout</t>
+  </si>
+  <si>
+    <t>Verify that user can update address</t>
+  </si>
+  <si>
+    <t>Verify that user can remove address</t>
+  </si>
+  <si>
+    <t>Verify that user can add address</t>
+  </si>
+  <si>
+    <t>Verify that user can add wish list</t>
+  </si>
+  <si>
+    <t>Verify that user can add multiple wish list</t>
+  </si>
+  <si>
+    <t>Verify that user can remove wish list</t>
+  </si>
+  <si>
+    <t>Verify that user can add product to cart</t>
+  </si>
+  <si>
+    <t>Verify that user can add multiple products to cart</t>
+  </si>
+  <si>
+    <t>Verify that user can remove product from cart</t>
+  </si>
+  <si>
+    <t>FOOTER SECTION</t>
+  </si>
+  <si>
+    <t>Verify that by clicking on the facebook icon user go to the facebook page</t>
+  </si>
+  <si>
+    <t>Verify that by clicking on the youtube icon user go to the youtube page</t>
+  </si>
+  <si>
+    <t>Verify that by clicking on the google+  icon user go to the google+ page</t>
+  </si>
+  <si>
+    <t>Verify that by clicking on the twitter icon user go to the twitter page</t>
+  </si>
+  <si>
+    <t>MY ACCOUNT</t>
+  </si>
+  <si>
+    <t>Click on "Sign out" button</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>lalovic.lenkalenka@gmail.com</t>
+  </si>
+  <si>
+    <t>There is 1 error
+Authentication failed.</t>
+  </si>
+  <si>
+    <t>lenka123</t>
+  </si>
+  <si>
+    <t>There is 1 error
+An email address required.</t>
+  </si>
+  <si>
+    <t>Click on user's account tab/Lenka Lalovic</t>
+  </si>
+  <si>
+    <t>In "My account" section choose "MY ADDRESS" and click on it</t>
+  </si>
+  <si>
+    <t>Click on green button "Add a new address"</t>
+  </si>
+  <si>
+    <t>In the dropdown "State" choose state</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>In field "Address" input address</t>
+  </si>
+  <si>
+    <t>In field "phone" input phone number</t>
+  </si>
+  <si>
+    <t>14585555</t>
+  </si>
+  <si>
+    <t>In field "City" input city</t>
+  </si>
+  <si>
+    <t>In the field "Zip/Postal Code" input code</t>
+  </si>
+  <si>
+    <t>Click on "SAVE" button</t>
+  </si>
+  <si>
+    <t>Marco's Island</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>John Newman 22/1</t>
+  </si>
+  <si>
+    <t>In field "Please assign an address title for future reference. *" input title</t>
+  </si>
+  <si>
+    <t>Click on gray button "Update" on the last added address</t>
+  </si>
+  <si>
+    <t>Click on gray button "Delete" on the last added address</t>
+  </si>
+  <si>
+    <t>On popup window click "OK"</t>
+  </si>
+  <si>
+    <t>Deleted address isn't on address list</t>
+  </si>
+  <si>
+    <t>Check is it deleted address  listed below.</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>Add new address in section "My address"</t>
+  </si>
+  <si>
+    <t>John Newman 222</t>
+  </si>
+  <si>
+    <t>1111178</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>ADDRESS 03</t>
+  </si>
+  <si>
+    <t>Address 03</t>
+  </si>
+  <si>
+    <t>Address 04</t>
+  </si>
+  <si>
+    <t>ADDRESS 04</t>
   </si>
 </sst>
 </file>
@@ -110,12 +323,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +359,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,18 +692,580 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
@@ -494,16 +1289,132 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -514,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -538,13 +1449,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -558,17 +1469,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -576,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -587,13 +1498,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -606,19 +1517,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -642,4 +1553,641 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="75">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Question&amp;Answers" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,25 @@
     <sheet name="AddNewAddress" sheetId="11" r:id="rId11"/>
     <sheet name="UpdateAddress" sheetId="12" r:id="rId12"/>
     <sheet name="DeleteAddress" sheetId="13" r:id="rId13"/>
+    <sheet name="AddingWishlist" sheetId="14" r:id="rId14"/>
+    <sheet name="DeleteWishList" sheetId="15" r:id="rId15"/>
+    <sheet name="AddMultipleWishList" sheetId="16" r:id="rId16"/>
+    <sheet name="EditPersonalInfo" sheetId="17" r:id="rId17"/>
+    <sheet name="AddProductToCart" sheetId="18" r:id="rId18"/>
+    <sheet name="AddMultipleProduct" sheetId="19" r:id="rId19"/>
+    <sheet name="DeleteProduct" sheetId="20" r:id="rId20"/>
+    <sheet name="FacebookPage" sheetId="21" r:id="rId21"/>
+    <sheet name="TwitterPage" sheetId="22" r:id="rId22"/>
+    <sheet name="YoutubePage" sheetId="23" r:id="rId23"/>
+    <sheet name="G+Page" sheetId="24" r:id="rId24"/>
+    <sheet name="BugReport01" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="195">
   <si>
     <t>QUESTIONS</t>
   </si>
@@ -43,9 +55,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
@@ -53,12 +62,6 @@
   </si>
   <si>
     <t>Test steps</t>
-  </si>
-  <si>
-    <t>invalid data</t>
-  </si>
-  <si>
-    <t>empty credentials</t>
   </si>
   <si>
     <t>Expected result</t>
@@ -291,23 +294,345 @@
     <t>12345</t>
   </si>
   <si>
-    <t>ADDRESS 03</t>
-  </si>
-  <si>
-    <t>Address 03</t>
-  </si>
-  <si>
     <t>Address 04</t>
   </si>
   <si>
     <t>ADDRESS 04</t>
+  </si>
+  <si>
+    <t>In "My account" section choose "MY WISHLISTS" and click on it</t>
+  </si>
+  <si>
+    <t>Input name of wishlist in field "Name"</t>
+  </si>
+  <si>
+    <t>Click on green button "SAVE"</t>
+  </si>
+  <si>
+    <t>Add new wishlist in section "My wishlist"</t>
+  </si>
+  <si>
+    <t>In "My account" section choose "MY WISHLIST and click on it</t>
+  </si>
+  <si>
+    <t>Click on  button "Delete" on the   wishlist</t>
+  </si>
+  <si>
+    <t>Check is it deleted wishlist  listed below.</t>
+  </si>
+  <si>
+    <t>Deleted wishlist isn't on wishlist list</t>
+  </si>
+  <si>
+    <t>Wishlist02</t>
+  </si>
+  <si>
+    <t>Wishlist01</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Wishlist03</t>
+  </si>
+  <si>
+    <t>In "My account" section choose "MY PERSONAL INFORMATION" and click on it</t>
+  </si>
+  <si>
+    <t>Click on "Mrs" radio button</t>
+  </si>
+  <si>
+    <t>Delete default entry and input name in field "First name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete default entry and input email in field "E-mail address" </t>
+  </si>
+  <si>
+    <t>Input current password in field "Current Password"</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Anic</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>Click on "WOMAN" tab</t>
+  </si>
+  <si>
+    <t>In section "View" click on option "List"</t>
+  </si>
+  <si>
+    <t>Choose "Faded Short Sleeve T-shirts" and click on button "Add to cart"</t>
+  </si>
+  <si>
+    <t>Close window by click on "x"</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:05</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:06</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:07</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:08</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:09</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:10</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:11</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:12</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:13</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:14</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:15</t>
+  </si>
+  <si>
+    <t>Choose "Printed Dress" and click on button "Add to cart"</t>
+  </si>
+  <si>
+    <t>Choose "Blouse" and click on button "Add to cart"</t>
+  </si>
+  <si>
+    <t>Click on button "Continue shopping"</t>
+  </si>
+  <si>
+    <t>Add product to cart</t>
+  </si>
+  <si>
+    <t>Click on icon shopping cart- "Cart"</t>
+  </si>
+  <si>
+    <t>Click on  icon Trash can [delete product]</t>
+  </si>
+  <si>
+    <t>Deleted product isn't in cart</t>
+  </si>
+  <si>
+    <t>In footer section click on icon for facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/525066904174158/</t>
+  </si>
+  <si>
+    <t>Navigate to :</t>
+  </si>
+  <si>
+    <t>In footer section click on icon for twitter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/seleniumfrmwrk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHl59sI3SRjQ-qPcTrgt0tA</t>
+  </si>
+  <si>
+    <t>In footer section click on icon for youtube</t>
+  </si>
+  <si>
+    <t>Google+ account</t>
+  </si>
+  <si>
+    <t>BUG ID:01</t>
+  </si>
+  <si>
+    <t>BUG DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Steps to reproduce:</t>
+  </si>
+  <si>
+    <t>Actual result:</t>
+  </si>
+  <si>
+    <t>Open Google Chrome browser</t>
+  </si>
+  <si>
+    <t>TESTER: Lenka Lalovic</t>
+  </si>
+  <si>
+    <t>DATE BUG SUBMITED:15.06.2021</t>
+  </si>
+  <si>
+    <t>In section footer when we click on the google + account icon - it navigates us to a site with the content "Google+ is no longer available for personal and brand accounts"</t>
+  </si>
+  <si>
+    <t>Icon for G+ account doesn't navigate to Google+ account</t>
+  </si>
+  <si>
+    <t>In footer section click on icon for Google+</t>
+  </si>
+  <si>
+    <t>Operating System: Windows 10 64-bit os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser:Google Chrome
+Version 90.0.4430.93 </t>
+  </si>
+  <si>
+    <t>Navigate to: http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>Expected result:</t>
+  </si>
+  <si>
+    <t>We are navigate to Google+ account</t>
+  </si>
+  <si>
+    <t>We are navigate to info page about Google+ account</t>
+  </si>
+  <si>
+    <t>Screenshot demonstrating bug's behavior</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:16</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:17</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:18</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:19</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:20</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:21</t>
+  </si>
+  <si>
+    <t>TEST CASE ID:22</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Delete default entry and input last name in field "Last name"</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Verify that user can edit personal information</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Address 01</t>
+  </si>
+  <si>
+    <t>ADDRESS 01</t>
+  </si>
+  <si>
+    <t>Address 02</t>
+  </si>
+  <si>
+    <t>ADDRESS 02</t>
+  </si>
+  <si>
+    <t>Cart 1 Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +647,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,18 +698,25 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,6 +725,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>172366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Capture_Bug_Google_account.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="3790950"/>
+          <a:ext cx="5981700" cy="3810916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,7 +1086,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,93 +1097,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
+      <c r="A9" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+      <c r="A10" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,144 +1210,263 @@
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="11"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,7 +1477,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -978,136 +1488,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+      <c r="A14" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
+      <c r="A15" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1645,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1134,91 +1656,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
+      <c r="A8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
@@ -1231,20 +1897,768 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1256,168 +2670,918 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="K13" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://www.youtube.com/channel/UCHl59sI3SRjQ-qPcTrgt0tA"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="B6" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1426,7 +3590,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1439,8 +3603,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
+      <c r="A1" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1448,14 +3612,14 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1468,69 +3632,59 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
@@ -1559,7 +3713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1571,8 +3727,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
+      <c r="A1" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1580,76 +3736,76 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1667,7 +3823,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1679,8 +3835,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
+      <c r="A1" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1688,74 +3844,74 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1776,7 +3932,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,84 +3943,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +4039,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,86 +4050,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1988,97 +4146,97 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="75">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2095,93 +4253,93 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -4,47 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Question&amp;Answers" sheetId="1" r:id="rId1"/>
-    <sheet name="TestPlan" sheetId="2" r:id="rId2"/>
-    <sheet name="SigninTest" sheetId="3" r:id="rId3"/>
-    <sheet name="SigninInvalidEmail" sheetId="4" r:id="rId4"/>
-    <sheet name="SigninEmptyField" sheetId="5" r:id="rId5"/>
-    <sheet name="LoginRegisteredUser" sheetId="6" r:id="rId6"/>
-    <sheet name="LoginInvalidEmail" sheetId="7" r:id="rId7"/>
-    <sheet name="LoginInvalidPassword" sheetId="8" r:id="rId8"/>
-    <sheet name="LoginEmptyCredentials" sheetId="10" r:id="rId9"/>
-    <sheet name="Logout" sheetId="9" r:id="rId10"/>
-    <sheet name="AddNewAddress" sheetId="11" r:id="rId11"/>
-    <sheet name="UpdateAddress" sheetId="12" r:id="rId12"/>
-    <sheet name="DeleteAddress" sheetId="13" r:id="rId13"/>
-    <sheet name="AddingWishlist" sheetId="14" r:id="rId14"/>
-    <sheet name="DeleteWishList" sheetId="15" r:id="rId15"/>
-    <sheet name="AddMultipleWishList" sheetId="16" r:id="rId16"/>
-    <sheet name="EditPersonalInfo" sheetId="17" r:id="rId17"/>
-    <sheet name="AddProductToCart" sheetId="18" r:id="rId18"/>
-    <sheet name="AddMultipleProduct" sheetId="19" r:id="rId19"/>
-    <sheet name="DeleteProduct" sheetId="20" r:id="rId20"/>
-    <sheet name="FacebookPage" sheetId="21" r:id="rId21"/>
-    <sheet name="TwitterPage" sheetId="22" r:id="rId22"/>
-    <sheet name="YoutubePage" sheetId="23" r:id="rId23"/>
-    <sheet name="G+Page" sheetId="24" r:id="rId24"/>
-    <sheet name="BugReport01" sheetId="26" r:id="rId25"/>
+    <sheet name="TestPlan" sheetId="2" r:id="rId1"/>
+    <sheet name="SigninTest" sheetId="3" r:id="rId2"/>
+    <sheet name="SigninInvalidEmail" sheetId="4" r:id="rId3"/>
+    <sheet name="SigninEmptyField" sheetId="5" r:id="rId4"/>
+    <sheet name="LoginRegisteredUser" sheetId="6" r:id="rId5"/>
+    <sheet name="LoginInvalidEmail" sheetId="7" r:id="rId6"/>
+    <sheet name="LoginInvalidPassword" sheetId="8" r:id="rId7"/>
+    <sheet name="LoginEmptyCredentials" sheetId="10" r:id="rId8"/>
+    <sheet name="Logout" sheetId="9" r:id="rId9"/>
+    <sheet name="AddNewAddress" sheetId="11" r:id="rId10"/>
+    <sheet name="UpdateAddress" sheetId="12" r:id="rId11"/>
+    <sheet name="DeleteAddress" sheetId="13" r:id="rId12"/>
+    <sheet name="AddingWishlist" sheetId="14" r:id="rId13"/>
+    <sheet name="DeleteWishList" sheetId="15" r:id="rId14"/>
+    <sheet name="AddMultipleWishList" sheetId="16" r:id="rId15"/>
+    <sheet name="EditPersonalInfo" sheetId="17" r:id="rId16"/>
+    <sheet name="AddProductToCart" sheetId="18" r:id="rId17"/>
+    <sheet name="AddMultipleProduct" sheetId="19" r:id="rId18"/>
+    <sheet name="DeleteProduct" sheetId="20" r:id="rId19"/>
+    <sheet name="FacebookPage" sheetId="21" r:id="rId20"/>
+    <sheet name="TwitterPage" sheetId="22" r:id="rId21"/>
+    <sheet name="YoutubePage" sheetId="23" r:id="rId22"/>
+    <sheet name="G+Page" sheetId="24" r:id="rId23"/>
+    <sheet name="BugReport01" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="195">
-  <si>
-    <t>QUESTIONS</t>
-  </si>
-  <si>
-    <t>ANSWERS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="194">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -429,9 +422,6 @@
     <t>TEST CASE ID:15</t>
   </si>
   <si>
-    <t>Choose "Printed Dress" and click on button "Add to cart"</t>
-  </si>
-  <si>
     <t>Choose "Blouse" and click on button "Add to cart"</t>
   </si>
   <si>
@@ -626,6 +616,12 @@
   </si>
   <si>
     <t>Cart 1 Product</t>
+  </si>
+  <si>
+    <t>Cart 2 Product</t>
+  </si>
+  <si>
+    <t>laloviccc.lenka@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1055,26 +1051,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,122 +1321,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1217,34 +1340,34 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1257,18 +1380,18 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1276,14 +1399,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1292,175 +1415,175 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1489,20 +1612,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1512,19 +1635,19 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1533,103 +1656,103 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1657,43 +1780,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1701,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1710,34 +1833,34 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1763,11 +1886,11 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1795,26 +1918,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1825,11 +1948,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1837,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1846,27 +1969,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1877,13 +2000,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1914,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1931,43 +2054,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1975,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1984,34 +2107,34 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -2037,11 +2160,11 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2071,26 +2194,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2101,17 +2224,17 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2119,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2128,33 +2251,33 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -2165,13 +2288,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2204,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2221,26 +2344,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2251,11 +2374,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2263,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2272,69 +2395,69 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -2345,13 +2468,13 @@
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2380,26 +2503,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2410,11 +2533,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2422,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2431,46 +2554,46 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2501,12 +2624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2518,26 +2641,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2548,11 +2671,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2560,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2569,72 +2692,70 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
-        <v>121</v>
+      <c r="A14" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
@@ -2642,23 +2763,7 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2668,278 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2956,43 +2790,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3000,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3009,16 +2843,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -3029,11 +2863,11 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3069,7 +2903,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3087,20 +3045,20 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3115,11 +3073,11 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3127,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3148,13 +3106,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -3182,7 +3140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3199,20 +3157,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3227,11 +3185,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3239,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3260,13 +3218,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3296,20 +3254,20 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3324,11 +3282,11 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3336,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3357,13 +3315,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3378,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3395,20 +3353,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3423,11 +3381,11 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3435,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3456,13 +3414,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3491,39 +3449,39 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="B6" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3531,7 +3489,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3539,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3547,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3555,28 +3513,28 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3586,130 +3544,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3728,7 +3562,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3737,13 +3571,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3757,11 +3591,11 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3771,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3779,13 +3613,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3799,13 +3633,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3818,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3836,7 +3670,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3845,13 +3679,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3865,21 +3699,21 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3890,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3905,13 +3739,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3927,7 +3761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3944,20 +3778,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3967,11 +3801,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3979,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -3988,41 +3822,148 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4044,27 +3985,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4074,11 +4015,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4086,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -4095,41 +4036,41 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4142,113 +4083,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4265,20 +4099,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4288,11 +4122,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4300,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -4309,37 +4143,37 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4348,4 +4182,120 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>